--- a/call_report.xlsx
+++ b/call_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Call Time</t>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
         </is>
       </c>
     </row>
@@ -485,6 +490,35 @@
       </c>
       <c r="E2" s="2" t="n">
         <v>46071.51578703704</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>user0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Arun Kumar</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not Willing</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>46071.54355324074</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>willing</t>
+        </is>
       </c>
     </row>
   </sheetData>
